--- a/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
+++ b/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszkornuta/Documents/GitHub/COG_publications/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmarois/repos/mi-visual-reasoning-pubs/Transfer_Learning/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E32F5-CE7F-A449-B9F5-9E0A564B2ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BBB15C-F2AB-424C-876A-DA87B8E2B30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1120,7 +1123,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1328,11 +1331,16 @@
             <c:v>COG</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1362,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1521,10 +1529,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1582,10 +1587,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1698,7 +1700,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1906,11 +1908,16 @@
             <c:v>COG</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1932,7 +1939,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2127,10 +2134,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2244,7 +2248,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -2354,11 +2358,14 @@
             <c:v>COG (Ours)</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2381,9 +2388,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2488,11 +2495,16 @@
             <c:v>COG (Paper)</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2515,7 +2527,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2655,10 +2667,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2716,10 +2725,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7839,8 +7845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F950B3BD-F67F-7347-9596-8AB8CAAAC726}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M26" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AE41" sqref="AE41"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
+++ b/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmarois/repos/mi-visual-reasoning-pubs/Transfer_Learning/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BBB15C-F2AB-424C-876A-DA87B8E2B30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35912F5-DBE4-F544-A6B5-3355DDD4E4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2147,6 +2146,7 @@
         <c:crossAx val="1113063551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7820,6 +7820,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="K4:L4"/>
@@ -7829,13 +7836,6 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7845,8 +7845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F950B3BD-F67F-7347-9596-8AB8CAAAC726}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="171" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
+++ b/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmarois/repos/mi-visual-reasoning-pubs/Transfer_Learning/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkornuta/Documents/git/mi-visual-reasoning-pubs/Transfer_Learning/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35912F5-DBE4-F544-A6B5-3355DDD4E4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99237EEF-A018-114A-9CB5-3BFBD7D6C48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
+    <workbookView xWindow="5400" yWindow="460" windowWidth="20200" windowHeight="14460" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="76">
   <si>
     <t xml:space="preserve">Trained on </t>
   </si>
@@ -219,25 +219,61 @@
     <t>Finetuning</t>
   </si>
   <si>
-    <t>Canonical-Canonical</t>
-  </si>
-  <si>
-    <t>Canonical-Hard</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>Hard-Hard</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(Fine-tuning)</t>
+    <t>(Zero-shot)</t>
   </si>
   <si>
-    <t>(Zero-shot)</t>
+    <t>AndSimple
+CompareColor</t>
+  </si>
+  <si>
+    <t>AndSimple
+CompareShape</t>
+  </si>
+  <si>
+    <t>ExistLastColor
+SameShape</t>
+  </si>
+  <si>
+    <t>ExistLastObject
+SameObject</t>
+  </si>
+  <si>
+    <t>ExistLastShape
+SameColor</t>
+  </si>
+  <si>
+    <t>SimpleCompare
+Shape</t>
+  </si>
+  <si>
+    <t>SimpleCompare
+Color</t>
+  </si>
+  <si>
+    <t>AndCompare
+Color</t>
+  </si>
+  <si>
+    <t>AndCompare
+Shape</t>
+  </si>
+  <si>
+    <t>Canonical =&gt; Canonical</t>
+  </si>
+  <si>
+    <t>Canonical =&gt; Hard</t>
+  </si>
+  <si>
+    <t>Hard =&gt; Hard</t>
+  </si>
+  <si>
+    <t>(Fine-tuning on Hard)</t>
   </si>
 </sst>
 </file>
@@ -343,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,6 +497,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,16 +632,20 @@
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>AndCompareColor</c:v>
+                  <c:v>AndCompare
+Color</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AndCompareShape</c:v>
+                  <c:v>AndCompare
+Shape</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AndSimpleCompareColor</c:v>
+                  <c:v>AndSimple
+CompareColor</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AndSimpleCompareShape</c:v>
+                  <c:v>AndSimple
+CompareShape</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>CompareColor</c:v>
@@ -620,13 +666,16 @@
                   <c:v>ExistColorSpace</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ExistLastColorSameShape</c:v>
+                  <c:v>ExistLastColor
+SameShape</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ExistLastObjectSameObject</c:v>
+                  <c:v>ExistLastObject
+SameObject</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ExistLastShapeSameColor</c:v>
+                  <c:v>ExistLastShape
+SameColor</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>ExistShape</c:v>
@@ -653,10 +702,12 @@
                   <c:v>GetShapeSpace</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>SimpleCompareShape</c:v>
+                  <c:v>SimpleCompare
+Shape</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>SimpleCompareColor</c:v>
+                  <c:v>SimpleCompare
+Color</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -939,11 +990,14 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="4500000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1168,16 +1222,20 @@
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>AndCompareColor</c:v>
+                  <c:v>AndCompare
+Color</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AndCompareShape</c:v>
+                  <c:v>AndCompare
+Shape</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AndSimpleCompareColor</c:v>
+                  <c:v>AndSimple
+CompareColor</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AndSimpleCompareShape</c:v>
+                  <c:v>AndSimple
+CompareShape</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>CompareColor</c:v>
@@ -1198,13 +1256,16 @@
                   <c:v>ExistColorSpace</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ExistLastColorSameShape</c:v>
+                  <c:v>ExistLastColor
+SameShape</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ExistLastObjectSameObject</c:v>
+                  <c:v>ExistLastObject
+SameObject</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ExistLastShapeSameColor</c:v>
+                  <c:v>ExistLastShape
+SameColor</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>ExistShape</c:v>
@@ -1231,10 +1292,12 @@
                   <c:v>GetShapeSpace</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>SimpleCompareShape</c:v>
+                  <c:v>SimpleCompare
+Shape</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>SimpleCompareColor</c:v>
+                  <c:v>SimpleCompare
+Color</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1522,7 +1585,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="4500000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1599,6 +1662,7 @@
         <c:crossAx val="1113063551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1745,16 +1809,20 @@
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>AndCompareColor</c:v>
+                  <c:v>AndCompare
+Color</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AndCompareShape</c:v>
+                  <c:v>AndCompare
+Shape</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AndSimpleCompareColor</c:v>
+                  <c:v>AndSimple
+CompareColor</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AndSimpleCompareShape</c:v>
+                  <c:v>AndSimple
+CompareShape</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>CompareColor</c:v>
@@ -1775,13 +1843,16 @@
                   <c:v>ExistColorSpace</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ExistLastColorSameShape</c:v>
+                  <c:v>ExistLastColor
+SameShape</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ExistLastObjectSameObject</c:v>
+                  <c:v>ExistLastObject
+SameObject</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ExistLastShapeSameColor</c:v>
+                  <c:v>ExistLastShape
+SameColor</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>ExistShape</c:v>
@@ -1808,10 +1879,12 @@
                   <c:v>GetShapeSpace</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>SimpleCompareShape</c:v>
+                  <c:v>SimpleCompare
+Shape</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>SimpleCompareColor</c:v>
+                  <c:v>SimpleCompare
+Color</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2146,7 +2219,7 @@
         <c:crossAx val="1113063551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2248,7 +2321,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -2295,16 +2368,16 @@
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Canonical-Canonical</c:v>
+                    <c:v>Canonical =&gt; Canonical</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Canonical-Hard</c:v>
+                    <c:v>Canonical =&gt; Hard</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Canonical-Hard</c:v>
+                    <c:v>Canonical =&gt; Hard</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Hard-Hard</c:v>
+                    <c:v>Hard =&gt; Hard</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2315,7 +2388,7 @@
                     <c:v>(Zero-shot)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>(Fine-tuning)</c:v>
+                    <c:v>(Fine-tuning on Hard)</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>   </c:v>
@@ -2363,7 +2436,9 @@
                 <a:schemeClr val="accent3"/>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
               </a:bgClr>
             </a:pattFill>
             <a:ln>
@@ -2388,7 +2463,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2435,16 +2510,16 @@
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Canonical-Canonical</c:v>
+                    <c:v>Canonical =&gt; Canonical</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Canonical-Hard</c:v>
+                    <c:v>Canonical =&gt; Hard</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Canonical-Hard</c:v>
+                    <c:v>Canonical =&gt; Hard</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Hard-Hard</c:v>
+                    <c:v>Hard =&gt; Hard</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2455,7 +2530,7 @@
                     <c:v>(Zero-shot)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>(Fine-tuning)</c:v>
+                    <c:v>(Fine-tuning on Hard)</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>   </c:v>
@@ -2527,7 +2602,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2574,16 +2649,16 @@
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Canonical-Canonical</c:v>
+                    <c:v>Canonical =&gt; Canonical</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Canonical-Hard</c:v>
+                    <c:v>Canonical =&gt; Hard</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Canonical-Hard</c:v>
+                    <c:v>Canonical =&gt; Hard</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Hard-Hard</c:v>
+                    <c:v>Hard =&gt; Hard</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2594,7 +2669,7 @@
                     <c:v>(Zero-shot)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>(Fine-tuning)</c:v>
+                    <c:v>(Fine-tuning on Hard)</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>   </c:v>
@@ -2632,7 +2707,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="20"/>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-10"/>
         <c:axId val="1113063551"/>
         <c:axId val="1238457167"/>
       </c:barChart>
@@ -2651,10 +2727,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2689,7 +2762,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.55000000000000004"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2723,7 +2796,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2738,6 +2811,7 @@
         <c:crossAx val="1113063551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4970,8 +5044,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66963</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>173789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5001,13 +5075,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>115455</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:rowOff>103911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>415635</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>145474</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5075,13 +5149,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>177799</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241140</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -5480,38 +5554,38 @@
       <c r="A1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="64"/>
       <c r="R1" s="57"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="62"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="64"/>
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:30">
@@ -5531,17 +5605,17 @@
         <v>7</v>
       </c>
       <c r="J2" s="48"/>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="61"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="57"/>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
       <c r="R2" s="57"/>
       <c r="S2" s="3" t="s">
         <v>7</v>
@@ -5587,17 +5661,17 @@
         <v>53</v>
       </c>
       <c r="J3" s="48"/>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="57"/>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
       <c r="R3" s="57"/>
       <c r="S3" s="3" t="s">
         <v>31</v>
@@ -5643,17 +5717,17 @@
         <v>9</v>
       </c>
       <c r="J4" s="48"/>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="61"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="57"/>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
       <c r="R4" s="57"/>
       <c r="S4" s="3" t="s">
         <v>7</v>
@@ -5694,10 +5768,10 @@
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
       <c r="M5" s="59"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
       <c r="R5" s="59"/>
       <c r="S5" s="2"/>
       <c r="T5" s="59"/>
@@ -5727,17 +5801,17 @@
         <v>8</v>
       </c>
       <c r="J6" s="57"/>
-      <c r="K6" s="61">
+      <c r="K6" s="63">
         <v>8</v>
       </c>
-      <c r="L6" s="61"/>
+      <c r="L6" s="63"/>
       <c r="M6" s="57"/>
-      <c r="N6" s="61">
+      <c r="N6" s="63">
         <v>8</v>
       </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="64"/>
       <c r="R6" s="57"/>
       <c r="S6" s="3">
         <v>5</v>
@@ -5783,17 +5857,17 @@
         <v>128</v>
       </c>
       <c r="J7" s="57"/>
-      <c r="K7" s="61">
+      <c r="K7" s="63">
         <v>128</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="57"/>
-      <c r="N7" s="61">
+      <c r="N7" s="63">
         <v>128</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="64"/>
       <c r="R7" s="57"/>
       <c r="S7" s="3">
         <v>128</v>
@@ -5839,17 +5913,17 @@
         <v>8</v>
       </c>
       <c r="J8" s="57"/>
-      <c r="K8" s="61">
+      <c r="K8" s="63">
         <v>8</v>
       </c>
-      <c r="L8" s="61"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="57"/>
-      <c r="N8" s="61">
+      <c r="N8" s="63">
         <v>8</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="64"/>
       <c r="R8" s="57"/>
       <c r="S8" s="3" t="s">
         <v>31</v>
@@ -7820,13 +7894,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="K4:L4"/>
@@ -7836,8 +7903,16 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7845,8 +7920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F950B3BD-F67F-7347-9596-8AB8CAAAC726}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="171" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7863,38 +7938,38 @@
       <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="64"/>
       <c r="R1" s="45"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="62"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="64"/>
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:30">
@@ -7910,19 +7985,19 @@
         <v>7</v>
       </c>
       <c r="H2" s="48"/>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="61"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
       <c r="R2" s="45"/>
       <c r="S2" s="3" t="s">
         <v>7</v>
@@ -7964,19 +8039,19 @@
         <v>31</v>
       </c>
       <c r="H3" s="48"/>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="61"/>
+      <c r="J3" s="63"/>
       <c r="K3" s="45"/>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
       <c r="R3" s="45"/>
       <c r="S3" s="3" t="s">
         <v>31</v>
@@ -8018,19 +8093,19 @@
         <v>9</v>
       </c>
       <c r="H4" s="48"/>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="63"/>
       <c r="K4" s="45"/>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
       <c r="R4" s="45"/>
       <c r="S4" s="3" t="s">
         <v>7</v>
@@ -8069,12 +8144,12 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
       <c r="R5" s="7"/>
       <c r="S5" s="2"/>
       <c r="T5" s="7"/>
@@ -8100,19 +8175,19 @@
         <v>8</v>
       </c>
       <c r="H6" s="46"/>
-      <c r="I6" s="61">
+      <c r="I6" s="63">
         <v>8</v>
       </c>
-      <c r="J6" s="61"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="45"/>
-      <c r="L6" s="61">
+      <c r="L6" s="63">
         <v>8</v>
       </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="64"/>
       <c r="R6" s="45"/>
       <c r="S6" s="3">
         <v>5</v>
@@ -8154,19 +8229,19 @@
         <v>128</v>
       </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="61">
+      <c r="I7" s="63">
         <v>128</v>
       </c>
-      <c r="J7" s="61"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="45"/>
-      <c r="L7" s="61">
+      <c r="L7" s="63">
         <v>128</v>
       </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="64"/>
       <c r="R7" s="45"/>
       <c r="S7" s="3">
         <v>128</v>
@@ -8208,19 +8283,19 @@
         <v>8</v>
       </c>
       <c r="H8" s="46"/>
-      <c r="I8" s="61">
+      <c r="I8" s="63">
         <v>8</v>
       </c>
-      <c r="J8" s="61"/>
+      <c r="J8" s="63"/>
       <c r="K8" s="45"/>
-      <c r="L8" s="61">
+      <c r="L8" s="63">
         <v>8</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="64"/>
       <c r="R8" s="45"/>
       <c r="S8" s="3" t="s">
         <v>31</v>
@@ -8531,9 +8606,9 @@
       <c r="Z14" s="31"/>
       <c r="AA14" s="32"/>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="12" t="s">
-        <v>1</v>
+    <row r="15" spans="1:30" ht="34">
+      <c r="A15" s="61" t="s">
+        <v>70</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="31">
@@ -8601,9 +8676,9 @@
       </c>
       <c r="AD15" s="40"/>
     </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="12" t="s">
-        <v>8</v>
+    <row r="16" spans="1:30" ht="34">
+      <c r="A16" s="61" t="s">
+        <v>71</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="31">
@@ -8671,9 +8746,9 @@
       </c>
       <c r="AD16" s="40"/>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="12" t="s">
-        <v>2</v>
+    <row r="17" spans="1:30" ht="34">
+      <c r="A17" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="31">
@@ -8741,9 +8816,9 @@
       </c>
       <c r="AD17" s="40"/>
     </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="12" t="s">
-        <v>3</v>
+    <row r="18" spans="1:30" ht="34">
+      <c r="A18" s="61" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="31">
@@ -9231,9 +9306,9 @@
       </c>
       <c r="AD24" s="40"/>
     </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="12" t="s">
-        <v>14</v>
+    <row r="25" spans="1:30" ht="34">
+      <c r="A25" s="61" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="31">
@@ -9301,9 +9376,9 @@
       </c>
       <c r="AD25" s="40"/>
     </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="12" t="s">
-        <v>15</v>
+    <row r="26" spans="1:30" ht="34">
+      <c r="A26" s="61" t="s">
+        <v>66</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="31">
@@ -9371,9 +9446,9 @@
       </c>
       <c r="AD26" s="40"/>
     </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="12" t="s">
-        <v>16</v>
+    <row r="27" spans="1:30" ht="34">
+      <c r="A27" s="61" t="s">
+        <v>67</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="31">
@@ -10001,9 +10076,9 @@
       </c>
       <c r="AD35" s="40"/>
     </row>
-    <row r="36" spans="1:30">
-      <c r="A36" s="12" t="s">
-        <v>13</v>
+    <row r="36" spans="1:30" ht="34">
+      <c r="A36" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="31">
@@ -10071,9 +10146,9 @@
       </c>
       <c r="AD36" s="40"/>
     </row>
-    <row r="37" spans="1:30" ht="17" thickBot="1">
-      <c r="A37" s="15" t="s">
-        <v>25</v>
+    <row r="37" spans="1:30" ht="35" thickBot="1">
+      <c r="A37" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="34">
@@ -10241,10 +10316,10 @@
     <row r="41" spans="1:30">
       <c r="A41" s="1"/>
       <c r="Q41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R41" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="S41" s="37">
         <f>D13</f>
@@ -10262,10 +10337,10 @@
     <row r="42" spans="1:30">
       <c r="A42" s="1"/>
       <c r="Q42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R42" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="S42" s="37">
         <f>G13</f>
@@ -10279,10 +10354,10 @@
     <row r="43" spans="1:30">
       <c r="A43" s="1"/>
       <c r="Q43" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R43" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="S43" s="37">
         <f>J13</f>
@@ -10296,10 +10371,10 @@
     <row r="44" spans="1:30">
       <c r="A44" s="1"/>
       <c r="Q44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R44" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="S44" s="37">
         <f>P13</f>
@@ -10378,6 +10453,7 @@
     <mergeCell ref="L6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
+++ b/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkornuta/Documents/git/mi-visual-reasoning-pubs/Transfer_Learning/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99237EEF-A018-114A-9CB5-3BFBD7D6C48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF43EB-8A98-D34C-A97B-20F9DE1A9884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="460" windowWidth="20200" windowHeight="14460" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
   </bookViews>
@@ -2448,6 +2448,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4211113282273937E-3"/>
+                  <c:y val="7.3037132094008186E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8B0A-414B-BC1D-B53C983ACD70}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -2485,21 +2507,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2762,7 +2770,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.5"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5151,13 +5159,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>177799</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>241140</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>131381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7894,6 +7902,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="K4:L4"/>
@@ -7903,13 +7918,6 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7920,8 +7928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F950B3BD-F67F-7347-9596-8AB8CAAAC726}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView tabSelected="1" topLeftCell="O31" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="AC54" sqref="AC54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
+++ b/Transfer_Learning/results/Results paper VIGIL_v17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkornuta/Documents/git/mi-visual-reasoning-pubs/Transfer_Learning/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmarois/repos/mi-visual-reasoning-pubs/Transfer_Learning/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF43EB-8A98-D34C-A97B-20F9DE1A9884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C4795F-37E5-B847-A1B9-425E1423D2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="460" windowWidth="20200" windowHeight="14460" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -2321,7 +2321,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -2485,7 +2485,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2610,7 +2610,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -7902,13 +7902,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="K4:L4"/>
@@ -7918,6 +7911,13 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7928,8 +7928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F950B3BD-F67F-7347-9596-8AB8CAAAC726}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O31" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="AC54" sqref="AC54"/>
+    <sheetView tabSelected="1" topLeftCell="R35" zoomScale="158" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
